--- a/jpcore-r4/feature/swg5-medication_refactoring/observations-summary.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Profile</t>
   </si>
@@ -80,7 +80,10 @@
     <t>Observation Category Codes#exam</t>
   </si>
   <si>
-    <t>JP Core Physical Exam Code CodeSystem#physical-findings</t>
+    <t>null#physical-findings</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PhysicalExamCode_VS (preferred)</t>
   </si>
   <si>
     <t>dateTime, Period</t>
@@ -325,13 +328,13 @@
         <v>22</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -345,13 +348,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
@@ -360,10 +363,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>17</v>
